--- a/Laboratory/Lab_instantaneous_velocity/Data.xlsx
+++ b/Laboratory/Lab_instantaneous_velocity/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\JuanGuarin\Escritorio\UNIVERSIDAD\3 TERCER SEMESTRE\LAB FÍSICA I\8 VEL MEDIA RIEL DE AIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Documents\GitHub\JupyterCods\Laboratory\Lab_instantaneous_velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2512EF-BCA1-4201-AD1D-2AC8A319112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83DC36C-D15F-4A97-8E79-E1EF7817544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8E644C79-7530-4515-B3AB-3E9B3A79455D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>angulo en grados</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Error vel en %</t>
+  </si>
+  <si>
+    <t>Incertidumbre</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="0.0000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -169,14 +172,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDA3D01-A6B1-44C3-92FD-8DE381F8C6B8}">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I18" sqref="B12:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,13 +533,13 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
@@ -615,7 +624,7 @@
         <v>4.1864543470578894E-3</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" ref="K2:K7" si="0">A2/H2</f>
+        <f>A2/H2</f>
         <v>40.81114416309947</v>
       </c>
       <c r="L2" s="5">
@@ -683,23 +692,23 @@
         <v>0.76749999999999996</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H7" si="1">AVERAGE(C3:G3)</f>
+        <f>AVERAGE(C3:G3)</f>
         <v>0.76782000000000006</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I6" si="2">0.00001</f>
+        <f t="shared" ref="I3:I6" si="0">0.00001</f>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J7" si="3">_xlfn.STDEV.P(C3:G3)</f>
+        <f t="shared" ref="J3:J7" si="1">_xlfn.STDEV.P(C3:G3)</f>
         <v>1.6265300489078066E-3</v>
       </c>
       <c r="K3" s="5">
-        <f t="shared" si="0"/>
+        <f>A3/H3</f>
         <v>39.071657419707741</v>
       </c>
       <c r="L3" s="5">
-        <f t="shared" ref="L3:L7" si="4">B3/H3+A3/(H3*H3)*J3</f>
+        <f>B3/H3+A3/(H3*H3)*J3</f>
         <v>0.34324610566771674</v>
       </c>
     </row>
@@ -726,23 +735,23 @@
         <v>0.42920000000000003</v>
       </c>
       <c r="H4" s="3">
+        <f>AVERAGE(C4:G4)</f>
+        <v>0.42797999999999997</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>0.42797999999999997</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="3"/>
         <v>1.2921300244170422E-3</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" si="0"/>
+        <f>A4/H4</f>
         <v>35.048366746109636</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="4"/>
+        <f>B4/H4+A4/(H4*H4)*J4</f>
         <v>0.57312735870701459</v>
       </c>
     </row>
@@ -769,23 +778,23 @@
         <v>0.21160000000000001</v>
       </c>
       <c r="H5" s="2">
+        <f>AVERAGE(C5:G5)</f>
+        <v>0.21176000000000003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J5" s="2">
         <f t="shared" si="1"/>
-        <v>0.21176000000000003</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" si="3"/>
         <v>2.4166091947189192E-4</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" si="0"/>
+        <f>A5/H5</f>
         <v>47.223271628258402</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="4"/>
+        <f>B5/H5+A5/(H5*H5)*J5</f>
         <v>0.10111456007818204</v>
       </c>
     </row>
@@ -812,23 +821,23 @@
         <v>0.17199999999999999</v>
       </c>
       <c r="H6" s="2">
+        <f>AVERAGE(C6:G6)</f>
+        <v>0.17132</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J6" s="2">
         <f t="shared" si="1"/>
-        <v>0.17132</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
         <v>3.4292856398964019E-4</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" si="0"/>
+        <f>A6/H6</f>
         <v>46.696240952603318</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
+        <f>B6/H6+A6/(H6*H6)*J6</f>
         <v>0.15184143622221857</v>
       </c>
     </row>
@@ -863,7 +872,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.8989794855663264E-5</v>
       </c>
       <c r="K7" s="5">
@@ -871,7 +880,7 @@
         <v>41.920731707317074</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="4"/>
+        <f>B7/H7+A7/(H7*H7)*J7</f>
         <v>0.45936311152975462</v>
       </c>
     </row>
@@ -879,13 +888,49 @@
       <c r="K8" s="4"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="J12" s="2"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="I18" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -927,10 +972,10 @@
       <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="6"/>
@@ -951,11 +996,11 @@
       <c r="E2">
         <v>0.2</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <f>SQRT(2*981*SIN(A2)*(D2-C2))</f>
         <v>45.388324489894984</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <f>1/(2*F2)*(  2*980*(D2-C2)*COS(A2) * B2+2*980*SIN(A2)*E2 )</f>
         <v>0.22131242148487695</v>
       </c>
@@ -990,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9FC2752-1AC8-4BD4-AE29-DF6EAE067BBA}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B12" sqref="B12:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,16 +1046,17 @@
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="20.109375" customWidth="1"/>
     <col min="7" max="7" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="19.21875" customWidth="1"/>
     <col min="9" max="9" width="22.33203125" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1081,7 @@
       <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="6" t="s">
@@ -1044,8 +1090,13 @@
       <c r="K1" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -1070,7 +1121,7 @@
       <c r="H2" s="2">
         <v>1.2102668932781968E-4</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <f>A2*SQRT(980*SIN($G$2)/2) / (SQRT(50+A2/2)-SQRT(50-A2/2))</f>
         <v>44.135318998154411</v>
       </c>
@@ -1078,12 +1129,18 @@
         <f>ABS(SQRT(980*SIN($G$2)/2)/2*(1/(2*SQRT(50+A2/2)) + 1/(2*SQRT(50-A2/2))))*B2+ABS(SQRT(980/2)*COS($G$2)/(2*SQRT(SIN($G$2)))*(SQRT(50+A2/2) - SQRT(50-A2/2)))*$H$2+ABS(SQRT(980*SIN($G$2))*(1/(2*SQRT(50+A2/2)) - 1/(2*SQRT(50-A2/2))))*0.2</f>
         <v>0.11287716742223963</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="13">
         <f>ABS(I2-E2)/I2*100</f>
         <v>7.5317793334493537</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="13">
+        <f>ABS(I2+J2-(E2-F2))/(I2-J2)*100-K2</f>
+        <v>1.0397233807977422</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>30</v>
       </c>
@@ -1102,20 +1159,26 @@
       <c r="F3" s="5">
         <v>0.34324610566771674</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f t="shared" ref="I3:I5" si="0">A3*SQRT(980*SIN($G$2)/2) / (SQRT(50+A3/2)-SQRT(50-A3/2))</f>
         <v>44.839752879091989</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" ref="J3:J7" si="1">ABS(SQRT(980*SIN($G$2)/2)/2*(1/(2*SQRT(50+A3/2)) + 1/(2*SQRT(50-A3/2))))*B3+ABS(SQRT(980/2)*COS($G$2)/(2*SQRT(SIN($G$2)))*(SQRT(50+A3/2) - SQRT(50-A3/2)))*$H$2+ABS(SQRT(980*SIN($G$2))*(1/(2*SQRT(50+A3/2)) - 1/(2*SQRT(50-A3/2))))*0.2</f>
+        <f t="shared" ref="J3:J6" si="1">ABS(SQRT(980*SIN($G$2)/2)/2*(1/(2*SQRT(50+A3/2)) + 1/(2*SQRT(50-A3/2))))*B3+ABS(SQRT(980/2)*COS($G$2)/(2*SQRT(SIN($G$2)))*(SQRT(50+A3/2) - SQRT(50-A3/2)))*$H$2+ABS(SQRT(980*SIN($G$2))*(1/(2*SQRT(50+A3/2)) - 1/(2*SQRT(50-A3/2))))*0.2</f>
         <v>8.7251367413851991E-2</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="13">
         <f t="shared" ref="K3:K7" si="2">ABS(I3-E3)/I3*100</f>
         <v>12.863798502497575</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="13">
+        <f t="shared" ref="L3:L4" si="3">ABS(I3+J3-(E3-F3))/(I3-J3)*100-K3</f>
+        <v>0.98703155858469671</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>15</v>
       </c>
@@ -1134,7 +1197,7 @@
       <c r="F4" s="5">
         <v>0.57312735870701459</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f t="shared" si="0"/>
         <v>45.236687440257207</v>
       </c>
@@ -1142,12 +1205,18 @@
         <f t="shared" si="1"/>
         <v>6.5345499005151311E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="13">
         <f t="shared" si="2"/>
         <v>22.522251894776762</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="13">
+        <f t="shared" si="3"/>
+        <v>1.4460277413266098</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1166,7 +1235,7 @@
       <c r="F5" s="5">
         <v>0.10111456007818204</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>45.30830026366818</v>
       </c>
@@ -1174,12 +1243,18 @@
         <f>ABS(SQRT(980*SIN($G$2)/2)/2*(1/(2*SQRT(50+A5/2)) + 1/(2*SQRT(50-A5/2))))*B5+ABS(SQRT(980/2)*COS($G$2)/(2*SQRT(SIN($G$2)))*(SQRT(50+A5/2) - SQRT(50-A5/2)))*$H$2+ABS(SQRT(980*SIN($G$2))*(1/(2*SQRT(50+A5/2)) - 1/(2*SQRT(50-A5/2))))*0.2</f>
         <v>1.52758009990938E-2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <f t="shared" si="2"/>
         <v>4.2265354326827387</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="5">
+        <f>ABS(I5-J5-(E5+F5))/(I5+J5)*100-K5</f>
+        <v>0.25537420915391973</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>8</v>
       </c>
@@ -1198,7 +1273,7 @@
       <c r="F6" s="5">
         <v>0.15184143622221857</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f>A6*SQRT(980*SIN($G$2)/2) / (SQRT(50+A6/2)-SQRT(50-A6/2))</f>
         <v>45.328819911763887</v>
       </c>
@@ -1206,12 +1281,18 @@
         <f t="shared" si="1"/>
         <v>1.2658838850596394E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <f t="shared" si="2"/>
         <v>3.0166702850443143</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="5">
+        <f>ABS(I6-J6-(E6+F6))/(I6+J6)*100-K6</f>
+        <v>0.36196084504755222</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -1230,7 +1311,7 @@
       <c r="F7" s="5">
         <v>0.45936311152975462</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>A7*SQRT(980*SIN($G$2)/2) / (SQRT(50+A7/2)-SQRT(50-A7/2))</f>
         <v>45.364498714487198</v>
       </c>
@@ -1238,73 +1319,77 @@
         <f>ABS(SQRT(980*SIN($G$2)/2)/2*(1/(2*SQRT(50+A7/2)) + 1/(2*SQRT(50-A7/2))))*B7+ABS(SQRT(980/2)*COS($G$2)/(2*SQRT(SIN($G$2)))*(SQRT(50+A7/2) - SQRT(50-A7/2)))*$H$2+ABS(SQRT(980*SIN($G$2))*(1/(2*SQRT(50+A7/2)) - 1/(2*SQRT(50-A7/2))))*0.2</f>
         <v>3.6929652362780968E-3</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="13">
         <f t="shared" si="2"/>
         <v>7.5913260473665352</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="13">
+        <f>ABS(I7+J7-(E7-F7))/(I7-J7)*100-K7</f>
+        <v>1.021446630289593</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="5"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="5"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
